--- a/Exposiciones/S1M12019_Exposiciones.xlsx
+++ b/Exposiciones/S1M12019_Exposiciones.xlsx
@@ -595,8 +595,8 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,16 +742,30 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="19"/>
+      <c r="G9" s="15">
+        <v>6</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17">
+        <v>10</v>
+      </c>
+      <c r="J9" s="17">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17">
+        <v>4</v>
+      </c>
+      <c r="L9" s="17">
+        <v>3</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
       <c r="N9" s="19">
         <f>SUM(G9:M9)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -871,16 +885,28 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="G16" s="15">
+        <v>7</v>
+      </c>
+      <c r="H16" s="17">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17">
+        <v>9</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+      <c r="K16" s="17">
+        <v>4</v>
+      </c>
       <c r="L16" s="17"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="19">
+        <v>3</v>
+      </c>
       <c r="N16" s="19">
         <f t="shared" ref="N16:N18" si="0">SUM(G16:M16)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1000,16 +1026,28 @@
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="G23" s="15">
+        <v>7</v>
+      </c>
+      <c r="H23" s="17">
+        <v>10</v>
+      </c>
+      <c r="I23" s="17">
+        <v>8</v>
+      </c>
+      <c r="J23" s="17">
+        <v>4</v>
+      </c>
+      <c r="K23" s="17">
+        <v>4</v>
+      </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="19">
+        <v>3</v>
+      </c>
       <c r="N23" s="19">
         <f t="shared" ref="N23:N25" si="1">SUM(G23:M23)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
